--- a/biology/Botanique/Costaria/Costaria.xlsx
+++ b/biology/Botanique/Costaria/Costaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Costaria est un genre d'algues brunes de la famille des Costariaceae selon AlgaeBase                                           (31 oct. 2012)[1] et NCBI  (31 oct. 2012)[2], ou bien de la famille des Laminariaceae selon Catalogue of Life                                   (31 oct. 2012)[3] et ITIS      (31 oct. 2012)[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Costaria est un genre d'algues brunes de la famille des Costariaceae selon AlgaeBase                                           (31 oct. 2012) et NCBI  (31 oct. 2012), ou bien de la famille des Laminariaceae selon Catalogue of Life                                   (31 oct. 2012) et ITIS      (31 oct. 2012).
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (31 oct. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (31 oct. 2012) :
 Costaria costata (C.Agardh) De A.Saunders (espèce type)
 Costaria latifolia Postels &amp; Ruprecht
-Selon Catalogue of Life                                   (31 oct. 2012)[3] et NCBI  (31 oct. 2012)[2] :
+Selon Catalogue of Life                                   (31 oct. 2012) et NCBI  (31 oct. 2012) :
 Costaria costata
-Selon ITIS      (31 oct. 2012)[4] :
+Selon ITIS      (31 oct. 2012) :
 Costaria costata C. Ag.
 Costaria turneri Greville, 1830</t>
         </is>
